--- a/Caracterizacion.xlsx
+++ b/Caracterizacion.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="20">
   <si>
     <t xml:space="preserve">Hz</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">FINAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
   </si>
 </sst>
 </file>
@@ -194,10 +197,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:O36"/>
+  <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L43" activeCellId="0" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -766,13 +769,25 @@
         <v>2</v>
       </c>
       <c r="D30" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="I30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>5</v>
+      <c r="K30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -780,35 +795,49 @@
         <v>10</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>10.8</v>
+        <v>8.6</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>8.7</v>
+        <v>21</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="0" t="n">
-        <f aca="false">1/((C31)*(0.00000001))</f>
-        <v>9259259.25925926</v>
+        <f aca="false">1/((C31*1000)*(0.00000001))</f>
+        <v>11627.9069767442</v>
       </c>
       <c r="J31" s="0" t="n">
-        <f aca="false">1/((D31)*(0.00000001))</f>
-        <v>11764705.8823529</v>
+        <f aca="false">1/((D31*1000)*(0.00000001))</f>
+        <v>13333.3333333333</v>
       </c>
       <c r="K31" s="0" t="n">
-        <f aca="false">1/((E31)*(0.00000001))</f>
-        <v>11494252.8735632</v>
+        <f aca="false">1/((E31*1000)*(0.00000001))</f>
+        <v>4761.90476190476</v>
       </c>
       <c r="L31" s="0" t="n">
-        <f aca="false">1/((F31)*(0.00000001))</f>
-        <v>4000000</v>
+        <f aca="false">1/((F31*1000)*(0.00000001))</f>
+        <v>13333.3333333333</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">SUM(I31:L31)</f>
+        <v>43056.4784053156</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>55897435.8974359</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">P31/5000000</f>
+        <v>11.1794871794872</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,32 +848,43 @@
         <v>5</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>20</v>
+        <v>5.2</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="0" t="n">
-        <f aca="false">1/((C32)*(0.00000001))</f>
-        <v>20000000</v>
+        <f aca="false">1/((C32*1000)*(0.00000001))</f>
+        <v>20000</v>
       </c>
       <c r="J32" s="0" t="n">
-        <f aca="false">1/((D32)*(0.00000001))</f>
-        <v>18181818.1818182</v>
+        <f aca="false">1/((D32*1000)*(0.00000001))</f>
+        <v>11111.1111111111</v>
       </c>
       <c r="K32" s="0" t="n">
-        <f aca="false">1/((E32)*(0.00000001))</f>
-        <v>9090909.09090909</v>
+        <f aca="false">1/((E32*1000)*(0.00000001))</f>
+        <v>5555.55555555556</v>
       </c>
       <c r="L32" s="0" t="n">
-        <f aca="false">1/((F32)*(0.00000001))</f>
-        <v>5000000</v>
+        <f aca="false">1/((F32*1000)*(0.00000001))</f>
+        <v>19230.7692307692</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">SUM(I32:L32)</f>
+        <v>55897.4358974359</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>49209760.8274079</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <f aca="false">P32/5000000</f>
+        <v>9.84195216548158</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,35 +892,49 @@
         <v>12</v>
       </c>
       <c r="C33" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D33" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D33" s="4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="E33" s="4" t="n">
-        <v>8.4</v>
+        <v>17.5</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>21</v>
+        <v>5.2</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="0" t="n">
-        <f aca="false">1/((C33)*(0.00000001))</f>
-        <v>12500000</v>
+        <f aca="false">1/((C33*1000)*(0.00000001))</f>
+        <v>11764.7058823529</v>
       </c>
       <c r="J33" s="0" t="n">
-        <f aca="false">1/((D33)*(0.00000001))</f>
-        <v>18181818.1818182</v>
+        <f aca="false">1/((D33*1000)*(0.00000001))</f>
+        <v>12500</v>
       </c>
       <c r="K33" s="0" t="n">
-        <f aca="false">1/((E33)*(0.00000001))</f>
-        <v>11904761.9047619</v>
+        <f aca="false">1/((E33*1000)*(0.00000001))</f>
+        <v>5714.28571428571</v>
       </c>
       <c r="L33" s="0" t="n">
-        <f aca="false">1/((F33)*(0.00000001))</f>
-        <v>4761904.76190476</v>
+        <f aca="false">1/((F33*1000)*(0.00000001))</f>
+        <v>19230.7692307692</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">SUM(I33:L33)</f>
+        <v>49209.7608274079</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>43056478.4053156</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <f aca="false">P33/5000000</f>
+        <v>8.61129568106312</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,35 +942,49 @@
         <v>13</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>5.4</v>
+        <v>8.5</v>
       </c>
       <c r="D34" s="4" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="n">
         <v>7</v>
-      </c>
-      <c r="E34" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F34" s="4" t="n">
-        <v>18</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>13</v>
       </c>
       <c r="I34" s="0" t="n">
-        <f aca="false">1/((C34)*(0.00000001))</f>
-        <v>18518518.5185185</v>
+        <f aca="false">1/((C34*1000)*(0.00000001))</f>
+        <v>11764.7058823529</v>
       </c>
       <c r="J34" s="0" t="n">
-        <f aca="false">1/((D34)*(0.00000001))</f>
-        <v>14285714.2857143</v>
+        <f aca="false">1/((D34*1000)*(0.00000001))</f>
+        <v>11363.6363636364</v>
       </c>
       <c r="K34" s="0" t="n">
-        <f aca="false">1/((E34)*(0.00000001))</f>
-        <v>12500000</v>
+        <f aca="false">1/((E34*1000)*(0.00000001))</f>
+        <v>5263.15789473684</v>
       </c>
       <c r="L34" s="0" t="n">
-        <f aca="false">1/((F34)*(0.00000001))</f>
-        <v>5555555.55555556</v>
+        <f aca="false">1/((F34*1000)*(0.00000001))</f>
+        <v>14285.7142857143</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">SUM(I34:L34)</f>
+        <v>42677.2144264404</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>42677214.4264404</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <f aca="false">P34/5000000</f>
+        <v>8.53544288528809</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -924,35 +992,49 @@
         <v>14</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>4.5</v>
+        <v>9.7</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>6.7</v>
+        <v>22.5</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>18</v>
+        <v>7.5</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="0" t="n">
-        <f aca="false">1/((C35)*(0.00000001))</f>
-        <v>13513513.5135135</v>
+        <f aca="false">1/((C35*1000)*(0.00000001))</f>
+        <v>8695.65217391305</v>
       </c>
       <c r="J35" s="0" t="n">
-        <f aca="false">1/((D35)*(0.00000001))</f>
-        <v>22222222.2222222</v>
+        <f aca="false">1/((D35*1000)*(0.00000001))</f>
+        <v>10309.2783505155</v>
       </c>
       <c r="K35" s="0" t="n">
-        <f aca="false">1/((E35)*(0.00000001))</f>
-        <v>14925373.1343284</v>
+        <f aca="false">1/((E35*1000)*(0.00000001))</f>
+        <v>4444.44444444444</v>
       </c>
       <c r="L35" s="0" t="n">
-        <f aca="false">1/((F35)*(0.00000001))</f>
-        <v>5555555.55555556</v>
+        <f aca="false">1/((F35*1000)*(0.00000001))</f>
+        <v>13333.3333333333</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <f aca="false">SUM(I35:L35)</f>
+        <v>36782.7083022063</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>36782708.3022063</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <f aca="false">P35/5000000</f>
+        <v>7.35654166044126</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,35 +1042,318 @@
         <v>15</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>9.5</v>
+        <v>15.4</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>13</v>
+        <v>33.5</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="0" t="n">
-        <f aca="false">1/((C36)*(0.00000001))</f>
-        <v>11764705.8823529</v>
+        <f aca="false">1/((C36*1000)*(0.00000001))</f>
+        <v>7407.40740740741</v>
       </c>
       <c r="J36" s="0" t="n">
-        <f aca="false">1/((D36)*(0.00000001))</f>
-        <v>10526315.7894737</v>
+        <f aca="false">1/((D36*1000)*(0.00000001))</f>
+        <v>6493.50649350649</v>
       </c>
       <c r="K36" s="0" t="n">
-        <f aca="false">1/((E36)*(0.00000001))</f>
-        <v>7692307.69230769</v>
+        <f aca="false">1/((E36*1000)*(0.00000001))</f>
+        <v>2985.07462686567</v>
       </c>
       <c r="L36" s="0" t="n">
-        <f aca="false">1/((F36)*(0.00000001))</f>
-        <v>3703703.7037037</v>
+        <f aca="false">1/((F36*1000)*(0.00000001))</f>
+        <v>9090.90909090909</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">SUM(I36:L36)</f>
+        <v>25976.8976186887</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>25976897.6186887</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <f aca="false">P36/5000000</f>
+        <v>5.19537952373773</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D40" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">1/((C40*1000)*(0.00000001))</f>
+        <v>11627.9069767442</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">1/((D40*1000)*(0.00000001))</f>
+        <v>13333.3333333333</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">1/((E40*1000)*(0.00000001))</f>
+        <v>4761.90476190476</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">1/((F40*1000)*(0.00000001))</f>
+        <v>13333.3333333333</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <f aca="false">SUM(I40:L40)</f>
+        <v>43056.4784053156</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">1/((C41*1000)*(0.00000001))</f>
+        <v>22727.2727272727</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">1/((D41*1000)*(0.00000001))</f>
+        <v>11764.7058823529</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">1/((E41*1000)*(0.00000001))</f>
+        <v>6250</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">1/((F41*1000)*(0.00000001))</f>
+        <v>21739.1304347826</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <f aca="false">SUM(I41:L41)</f>
+        <v>62481.1090444083</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">1/((C42*1000)*(0.00000001))</f>
+        <v>14925.3731343284</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">1/((D42*1000)*(0.00000001))</f>
+        <v>14084.5070422535</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">1/((E42*1000)*(0.00000001))</f>
+        <v>5882.35294117647</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">1/((F42*1000)*(0.00000001))</f>
+        <v>20000</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <f aca="false">SUM(I42:L42)</f>
+        <v>54892.2331177583</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D43" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">1/((C43*1000)*(0.00000001))</f>
+        <v>20408.1632653061</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">1/((D43*1000)*(0.00000001))</f>
+        <v>15384.6153846154</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">1/((E43*1000)*(0.00000001))</f>
+        <v>6250</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">1/((F43*1000)*(0.00000001))</f>
+        <v>18867.9245283019</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <f aca="false">SUM(I43:L43)</f>
+        <v>60910.7031782234</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D44" s="4" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">1/((C44*1000)*(0.00000001))</f>
+        <v>8695.65217391305</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">1/((D44*1000)*(0.00000001))</f>
+        <v>10309.2783505155</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">1/((E44*1000)*(0.00000001))</f>
+        <v>4444.44444444444</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">1/((F44*1000)*(0.00000001))</f>
+        <v>13333.3333333333</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <f aca="false">SUM(I44:L44)</f>
+        <v>36782.7083022063</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D45" s="4" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">1/((C45*1000)*(0.00000001))</f>
+        <v>7407.40740740741</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">1/((D45*1000)*(0.00000001))</f>
+        <v>6493.50649350649</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">1/((E45*1000)*(0.00000001))</f>
+        <v>2985.07462686567</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">1/((F45*1000)*(0.00000001))</f>
+        <v>9090.90909090909</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <f aca="false">SUM(I45:L45)</f>
+        <v>25976.8976186887</v>
       </c>
     </row>
   </sheetData>
